--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Ignat\myproject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA82EA2E-0242-4F77-B690-F9C609019F6D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC292D1-0657-479C-824B-31F3960CC8A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="990" windowWidth="14145" windowHeight="14610" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,15 +337,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="H11" sqref="H11:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -362,7 +362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -385,7 +385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -408,7 +408,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -431,7 +431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -454,7 +454,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -477,7 +477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2</v>
       </c>
@@ -500,7 +500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -523,7 +523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2</v>
       </c>
@@ -546,7 +546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -567,6 +567,56 @@
       </c>
       <c r="G10">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="8:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
